--- a/Big_Data_Doc/Node_Details.xlsx
+++ b/Big_Data_Doc/Node_Details.xlsx
@@ -388,20 +388,17 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,12 +1023,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.20408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.20408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Big_Data_Doc/Node_Details.xlsx
+++ b/Big_Data_Doc/Node_Details.xlsx
@@ -221,7 +221,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +232,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,7 +282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,6 +308,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,17 +398,20 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,19 +565,19 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="3"/>
@@ -581,19 +594,19 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="3"/>
@@ -948,56 +961,56 @@
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1023,10 +1036,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,56 +1584,56 @@
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Big_Data_Doc/Node_Details.xlsx
+++ b/Big_Data_Doc/Node_Details.xlsx
@@ -399,19 +399,19 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,16 +492,16 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -517,14 +517,14 @@
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -542,10 +542,10 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6"/>
@@ -623,17 +623,17 @@
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="3"/>
@@ -714,16 +714,16 @@
         <v>19</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="3"/>
@@ -1036,13 +1036,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
